--- a/disabled products/Gen 3S 14-Door.xlsx
+++ b/disabled products/Gen 3S 14-Door.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrypkahauer/Developer/Python/Jenn/prod_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenn/Documents/QuikTrip/2024 Reset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18EE972-96A3-5A42-A9B9-B02AFFA4BE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB71F7-0C2E-8543-9DEB-C41F74B2D8FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="500" windowWidth="29740" windowHeight="18320" xr2:uid="{F996D076-2E48-7947-B8D0-4019D9654FBF}"/>
+    <workbookView xWindow="12920" yWindow="0" windowWidth="12680" windowHeight="16000" xr2:uid="{F996D076-2E48-7947-B8D0-4019D9654FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1354">
   <si>
     <t>811620020428</t>
   </si>
@@ -354,15 +354,9 @@
     <t>098100100096</t>
   </si>
   <si>
-    <t>Starbucks Pink</t>
-  </si>
-  <si>
     <t>098100100119</t>
   </si>
   <si>
-    <t>Starbucks Tropical</t>
-  </si>
-  <si>
     <t>051000275622</t>
   </si>
   <si>
@@ -477,24 +471,12 @@
     <t>Simply Raspberry Lemonade 11.5oz</t>
   </si>
   <si>
-    <t>025000040191</t>
-  </si>
-  <si>
-    <t>Simply Smoothie Orchard Berry</t>
-  </si>
-  <si>
     <t>025000000735</t>
   </si>
   <si>
     <t>Simply Smoothie Strawberry Banana</t>
   </si>
   <si>
-    <t>025000040153</t>
-  </si>
-  <si>
-    <t>Simply Smoothie Mango Pineapple</t>
-  </si>
-  <si>
     <t>048500017753</t>
   </si>
   <si>
@@ -648,15 +630,6 @@
     <t>813694026337</t>
   </si>
   <si>
-    <t>Bai Pineapple Mango</t>
-  </si>
-  <si>
-    <t>852311004013</t>
-  </si>
-  <si>
-    <t>Bai Blue Berry</t>
-  </si>
-  <si>
     <t>079581444015</t>
   </si>
   <si>
@@ -735,12 +708,6 @@
     <t>Ghost Warhead Watermelon 16oz</t>
   </si>
   <si>
-    <t>810028297753</t>
-  </si>
-  <si>
-    <t>Ghost Swedish Fish 16oz</t>
-  </si>
-  <si>
     <t>611269423754</t>
   </si>
   <si>
@@ -759,12 +726,6 @@
     <t>Red Bull 12oz</t>
   </si>
   <si>
-    <t>611269001730</t>
-  </si>
-  <si>
-    <t>Red Bull Winter 12oz</t>
-  </si>
-  <si>
     <t>611269115482</t>
   </si>
   <si>
@@ -837,12 +798,6 @@
     <t>Red Bull 8.4oz 4-pk</t>
   </si>
   <si>
-    <t>611269001723</t>
-  </si>
-  <si>
-    <t>Red Bull Winter 8oz</t>
-  </si>
-  <si>
     <t>611269281620</t>
   </si>
   <si>
@@ -1425,18 +1380,6 @@
     <t>Reign Storm Kiwi 12oz</t>
   </si>
   <si>
-    <t>815154025492</t>
-  </si>
-  <si>
-    <t>Reign Storm Grape 12oz</t>
-  </si>
-  <si>
-    <t>815154025478</t>
-  </si>
-  <si>
-    <t>Reign Storm Orange 12oz</t>
-  </si>
-  <si>
     <t>815154026154</t>
   </si>
   <si>
@@ -1467,12 +1410,6 @@
     <t>Ryse Ring Pop</t>
   </si>
   <si>
-    <t>850041914268</t>
-  </si>
-  <si>
-    <t>Ryse Country Time Lemonade</t>
-  </si>
-  <si>
     <t>085405000884</t>
   </si>
   <si>
@@ -1641,12 +1578,6 @@
     <t>Rockstar Sugar Free 16oz</t>
   </si>
   <si>
-    <t>818094009980</t>
-  </si>
-  <si>
-    <t>Rockstar Zero Strawberry Peach 16oz</t>
-  </si>
-  <si>
     <t>012000220920</t>
   </si>
   <si>
@@ -2031,18 +1962,6 @@
     <t>Starbucks TS Vanilla 15oz</t>
   </si>
   <si>
-    <t>049000549515</t>
-  </si>
-  <si>
-    <t>Costa Latte Mocha</t>
-  </si>
-  <si>
-    <t>049000549539</t>
-  </si>
-  <si>
-    <t>Costa Latte Caramel</t>
-  </si>
-  <si>
     <t>036632075000</t>
   </si>
   <si>
@@ -2379,12 +2298,6 @@
     <t>Vitamin Water Gutzy Zero 20oz</t>
   </si>
   <si>
-    <t>786162411358</t>
-  </si>
-  <si>
-    <t>Vitamin Water Forever Zero 20oz</t>
-  </si>
-  <si>
     <t>049000407907</t>
   </si>
   <si>
@@ -2502,9 +2415,6 @@
     <t>810113831336</t>
   </si>
   <si>
-    <t>Body Armor Lemon Lime Lt 28oz</t>
-  </si>
-  <si>
     <t>810113831398</t>
   </si>
   <si>
@@ -2841,12 +2751,6 @@
     <t>Recover 180 Watermelon</t>
   </si>
   <si>
-    <t>810116121557</t>
-  </si>
-  <si>
-    <t>Prime Lemonade</t>
-  </si>
-  <si>
     <t>085004042708</t>
   </si>
   <si>
@@ -2859,12 +2763,6 @@
     <t>Prime Blue Razz</t>
   </si>
   <si>
-    <t>810116123452</t>
-  </si>
-  <si>
-    <t>Prime Cherry Freeze</t>
-  </si>
-  <si>
     <t>021136181395</t>
   </si>
   <si>
@@ -3231,18 +3129,6 @@
     <t>Qtea Black Sweet</t>
   </si>
   <si>
-    <t>047900361213</t>
-  </si>
-  <si>
-    <t>Luzianne Sweet Tea</t>
-  </si>
-  <si>
-    <t>047900361251</t>
-  </si>
-  <si>
-    <t>Luzianne Peach Tea</t>
-  </si>
-  <si>
     <t>850031700260</t>
   </si>
   <si>
@@ -3399,12 +3285,6 @@
     <t>Lipton Peach</t>
   </si>
   <si>
-    <t>012000012785</t>
-  </si>
-  <si>
-    <t>Lipton Green Citrus Dt</t>
-  </si>
-  <si>
     <t>076183003114</t>
   </si>
   <si>
@@ -3438,9 +3318,6 @@
     <t>090478230078</t>
   </si>
   <si>
-    <t>Jarritos Mundel Apple</t>
-  </si>
-  <si>
     <t>090478210445</t>
   </si>
   <si>
@@ -3477,12 +3354,6 @@
     <t>Brisk Raspberry</t>
   </si>
   <si>
-    <t>012000034022</t>
-  </si>
-  <si>
-    <t>Brisk Green w/Peach</t>
-  </si>
-  <si>
     <t>012000202384</t>
   </si>
   <si>
@@ -3504,9 +3375,6 @@
     <t>012000180323</t>
   </si>
   <si>
-    <t>Kickstart Pin/Orange/Mango 16oz</t>
-  </si>
-  <si>
     <t>012000211980</t>
   </si>
   <si>
@@ -3603,12 +3471,6 @@
     <t>Mountain Dew Baja Zero 20oz</t>
   </si>
   <si>
-    <t>012000204951</t>
-  </si>
-  <si>
-    <t>Mountain Dew Major Melon 20oz</t>
-  </si>
-  <si>
     <t>012000002243</t>
   </si>
   <si>
@@ -3789,18 +3651,6 @@
     <t>Coke Zero 12oz Slim</t>
   </si>
   <si>
-    <t>049000555240</t>
-  </si>
-  <si>
-    <t>Coke Spiced 12oz Slim</t>
-  </si>
-  <si>
-    <t>049000555370</t>
-  </si>
-  <si>
-    <t>Coke Spiced Zero 12oz Slim</t>
-  </si>
-  <si>
     <t>049000153415</t>
   </si>
   <si>
@@ -3855,18 +3705,6 @@
     <t>Coke Diet 20oz</t>
   </si>
   <si>
-    <t>049000555196</t>
-  </si>
-  <si>
-    <t>Coke Spiced 20oz</t>
-  </si>
-  <si>
-    <t>049000555424</t>
-  </si>
-  <si>
-    <t>Coke Spiced Zero 20oz</t>
-  </si>
-  <si>
     <t>049000140866</t>
   </si>
   <si>
@@ -3949,6 +3787,306 @@
   </si>
   <si>
     <t>Sprite 1L</t>
+  </si>
+  <si>
+    <t>Starbucks Strawberry Acai</t>
+  </si>
+  <si>
+    <t>Starbucks Pineapple Passionfruit</t>
+  </si>
+  <si>
+    <t>Jarritos Mundet Apple</t>
+  </si>
+  <si>
+    <t>068274463334</t>
+  </si>
+  <si>
+    <t>Pure Life Gallon</t>
+  </si>
+  <si>
+    <t>810063710811</t>
+  </si>
+  <si>
+    <t>810063710842</t>
+  </si>
+  <si>
+    <t>810063710828</t>
+  </si>
+  <si>
+    <t>810063710866</t>
+  </si>
+  <si>
+    <t>Poppi Orange 16oz</t>
+  </si>
+  <si>
+    <t>Poppi Wild Berry 16oz</t>
+  </si>
+  <si>
+    <t>Poppi Lemon Lime 16oz</t>
+  </si>
+  <si>
+    <t>Poppi Strawberry Lemon 16oz</t>
+  </si>
+  <si>
+    <t>Bai Pilavo Pineapple Mango</t>
+  </si>
+  <si>
+    <t>Bai Raspberry Lemon Lime</t>
+  </si>
+  <si>
+    <t>813694026399</t>
+  </si>
+  <si>
+    <t>611269001938</t>
+  </si>
+  <si>
+    <t>Red Bull Summer 12oz</t>
+  </si>
+  <si>
+    <t>611269001952</t>
+  </si>
+  <si>
+    <t>Red Bull Summer 8.4oz</t>
+  </si>
+  <si>
+    <t>815154026321</t>
+  </si>
+  <si>
+    <t>Reign Storm Strawberry Apricot 12oz</t>
+  </si>
+  <si>
+    <t>815154026291</t>
+  </si>
+  <si>
+    <t>Reign Storm Mango 12oz</t>
+  </si>
+  <si>
+    <t>889392001204</t>
+  </si>
+  <si>
+    <t>Celsius Cosmic Vibe 12oz</t>
+  </si>
+  <si>
+    <t>889392001327</t>
+  </si>
+  <si>
+    <t>Celsius Galaxy Vibe 12oz</t>
+  </si>
+  <si>
+    <t>889392000900</t>
+  </si>
+  <si>
+    <t>Celsius Oasis Vibe 12oz</t>
+  </si>
+  <si>
+    <t>889392001341</t>
+  </si>
+  <si>
+    <t>Celsius Astro Vibe 12oz</t>
+  </si>
+  <si>
+    <t>889392000863</t>
+  </si>
+  <si>
+    <t>Celsius Green Apple Cherry 12oz</t>
+  </si>
+  <si>
+    <t>Body Armor Lemon Lime Zero 28oz</t>
+  </si>
+  <si>
+    <t>810116124046</t>
+  </si>
+  <si>
+    <t>Prime Strawberry Banana</t>
+  </si>
+  <si>
+    <t>052000054903</t>
+  </si>
+  <si>
+    <t>Gatorade Water 700mL</t>
+  </si>
+  <si>
+    <t>052000054897</t>
+  </si>
+  <si>
+    <t>Gatorade Water 1L</t>
+  </si>
+  <si>
+    <t>786162411228</t>
+  </si>
+  <si>
+    <t>Smart Water Alkaline 700mL</t>
+  </si>
+  <si>
+    <t>028300000995</t>
+  </si>
+  <si>
+    <t>Shamrock Chocolate Milk 12oz</t>
+  </si>
+  <si>
+    <t>028300000896</t>
+  </si>
+  <si>
+    <t>Shamrock Whole Milk 12oz</t>
+  </si>
+  <si>
+    <t>028300000902</t>
+  </si>
+  <si>
+    <t>Shamrock 2% Milk 12oz</t>
+  </si>
+  <si>
+    <t>028300012011</t>
+  </si>
+  <si>
+    <t>Shamrock Whole Milk 1/2 Gal</t>
+  </si>
+  <si>
+    <t>028300012117</t>
+  </si>
+  <si>
+    <t>Shamrock 2% Milk 1/2 Gal</t>
+  </si>
+  <si>
+    <t>810085816959</t>
+  </si>
+  <si>
+    <t>Ghost Electric Limeade 16oz</t>
+  </si>
+  <si>
+    <t>611269002157</t>
+  </si>
+  <si>
+    <t>Red Bull Sugar Free Strawberry Apricot 12oz</t>
+  </si>
+  <si>
+    <t>611269002027</t>
+  </si>
+  <si>
+    <t>Red Bull Sugar Free Watermelon 8.4oz</t>
+  </si>
+  <si>
+    <t>611269002133</t>
+  </si>
+  <si>
+    <t>Red Bull Sugar Free Strawberry Apricot 8.4oz</t>
+  </si>
+  <si>
+    <t>842595131642</t>
+  </si>
+  <si>
+    <t>C4 Ultra Green Candy Apple 16oz</t>
+  </si>
+  <si>
+    <t>842595131659</t>
+  </si>
+  <si>
+    <t>C4 Ultra Cherry Limeade 16oz</t>
+  </si>
+  <si>
+    <t>850041914763</t>
+  </si>
+  <si>
+    <t>Ryse Sour Green Apple 16oz</t>
+  </si>
+  <si>
+    <t>889392001396</t>
+  </si>
+  <si>
+    <t>Celsius Blue Razz Lemonade 12oz</t>
+  </si>
+  <si>
+    <t>889392001303</t>
+  </si>
+  <si>
+    <t>Celsius Raspberry Peach 12oz</t>
+  </si>
+  <si>
+    <t>049000554892</t>
+  </si>
+  <si>
+    <t>Costa Iced Latte Mocha</t>
+  </si>
+  <si>
+    <t>049000554878</t>
+  </si>
+  <si>
+    <t>Costa Iced Latte Caramel</t>
+  </si>
+  <si>
+    <t>786162101082</t>
+  </si>
+  <si>
+    <t>Vitamin Water Focus 20oz</t>
+  </si>
+  <si>
+    <t>786162202970</t>
+  </si>
+  <si>
+    <t>Vitamin Water Squeezed Zero 20oz</t>
+  </si>
+  <si>
+    <t>786162204981</t>
+  </si>
+  <si>
+    <t>Vitamin Water Shine Zero 20oz</t>
+  </si>
+  <si>
+    <t>810116124473</t>
+  </si>
+  <si>
+    <t>Prime X</t>
+  </si>
+  <si>
+    <t>632432757773</t>
+  </si>
+  <si>
+    <t>Guayaki Yerba Mate Enlighten Mint 15.5oz</t>
+  </si>
+  <si>
+    <t>632432737775</t>
+  </si>
+  <si>
+    <t>Guayaki Yerba Mate Revel Berry 15.5oz</t>
+  </si>
+  <si>
+    <t>632432708775</t>
+  </si>
+  <si>
+    <t>Guayaki Yerba Mate Bluephoria 15.5oz</t>
+  </si>
+  <si>
+    <t>632432000176</t>
+  </si>
+  <si>
+    <t>Guayaki Yerba Mate Peach Revival 15.5oz</t>
+  </si>
+  <si>
+    <t>Kickstart Pine/Orange/Mango 16oz</t>
+  </si>
+  <si>
+    <t>012000231308</t>
+  </si>
+  <si>
+    <t>Mountain Dew Star Spangled Splash 20oz</t>
+  </si>
+  <si>
+    <t>012000231339</t>
+  </si>
+  <si>
+    <t>Mountain Dew Freedom Fusion 20oz</t>
+  </si>
+  <si>
+    <t>012000183652</t>
+  </si>
+  <si>
+    <t>Mountain Dew Liberty Chill 20oz</t>
+  </si>
+  <si>
+    <t>049000018066</t>
+  </si>
+  <si>
+    <t>Fresca 20oz</t>
   </si>
 </sst>
 </file>
@@ -4014,9 +4152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4054,7 +4192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4160,7 +4298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4302,7 +4440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4310,17 +4448,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58C5312-ECFB-4149-9CE8-75435D39C47B}">
-  <dimension ref="A1:C658"/>
+  <dimension ref="A1:C681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A639" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A663" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A682" sqref="A682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4391,7 +4529,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -4402,7 +4540,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -4413,7 +4551,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -4435,13 +4573,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>1297</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4449,10 +4587,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>1299</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4460,21 +4598,21 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>1301</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4482,10 +4620,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4493,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,43 +4664,43 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4570,43 +4708,43 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,10 +4752,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4625,10 +4763,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4636,21 +4774,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4658,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4669,21 +4807,21 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4691,54 +4829,54 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4746,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>1303</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4757,54 +4895,54 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>1305</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>1257</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4812,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4823,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4834,10 +4972,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4845,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4856,10 +4994,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4867,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4878,10 +5016,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4889,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -4900,10 +5038,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4911,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4922,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4933,10 +5071,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4944,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4955,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4966,10 +5104,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -4977,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,32 +5126,32 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -5021,43 +5159,43 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -5065,21 +5203,21 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -5087,65 +5225,65 @@
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -5153,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -5164,10 +5302,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -5175,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -5186,10 +5324,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -5197,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -5208,10 +5346,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -5219,21 +5357,21 @@
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -5241,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -5252,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -5263,10 +5401,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -5274,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -5285,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5307,10 +5445,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5318,10 +5456,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5329,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -5340,10 +5478,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -5351,10 +5489,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -5362,10 +5500,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5373,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5384,65 +5522,65 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -5450,10 +5588,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -5461,10 +5599,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -5472,21 +5610,21 @@
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>210</v>
+        <v>1259</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -5494,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>212</v>
+        <v>1260</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -5505,21 +5643,21 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>214</v>
+        <v>1261</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>1262</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -5527,10 +5665,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -5538,10 +5676,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -5549,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -5560,21 +5698,21 @@
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>224</v>
+        <v>1269</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5582,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -5593,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -5604,10 +5742,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -5615,10 +5753,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -5626,153 +5764,153 @@
         <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>252</v>
+        <v>1307</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>256</v>
+        <v>1309</v>
       </c>
       <c r="C129" t="s">
-        <v>257</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>258</v>
+        <v>1311</v>
       </c>
       <c r="C130" t="s">
-        <v>259</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -5780,32 +5918,32 @@
         <v>3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>264</v>
+        <v>1270</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -5813,10 +5951,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -5824,120 +5962,120 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C137" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="C140" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C141" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>284</v>
+        <v>1311</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>286</v>
+        <v>1313</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="C145" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -5945,98 +6083,98 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>294</v>
+        <v>1272</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C154" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C156" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -6044,10 +6182,10 @@
         <v>3</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C157" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -6055,65 +6193,65 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C158" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C160" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="C161" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="C162" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="C163" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -6121,21 +6259,21 @@
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -6143,10 +6281,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="C166" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -6154,32 +6292,32 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -6187,10 +6325,10 @@
         <v>2</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -6198,54 +6336,54 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C172" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C173" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C174" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="C175" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -6253,10 +6391,10 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C176" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -6264,10 +6402,10 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C177" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -6275,10 +6413,10 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -6286,10 +6424,10 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C179" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -6297,32 +6435,32 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C180" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C181" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="C182" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -6330,10 +6468,10 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C183" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -6341,43 +6479,43 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="C185" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C186" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -6385,98 +6523,98 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C189" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C190" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="C191" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="C194" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C195" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -6484,43 +6622,43 @@
         <v>1</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="C197" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="C198" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C200" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -6528,10 +6666,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="C201" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -6539,10 +6677,10 @@
         <v>1</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C202" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -6550,10 +6688,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="C203" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -6561,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="C204" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -6572,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="C205" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -6583,32 +6721,32 @@
         <v>1</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>410</v>
+        <v>1315</v>
       </c>
       <c r="C206" t="s">
-        <v>411</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>412</v>
+        <v>1317</v>
       </c>
       <c r="C207" t="s">
-        <v>413</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="C208" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -6616,10 +6754,10 @@
         <v>1</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="C209" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -6627,10 +6765,10 @@
         <v>1</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="C210" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -6638,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="C211" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -6649,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -6660,10 +6798,10 @@
         <v>1</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -6671,10 +6809,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="C214" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -6682,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="C215" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -6693,10 +6831,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="C216" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -6704,10 +6842,10 @@
         <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -6715,10 +6853,10 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="C218" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -6726,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="C219" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -6737,32 +6875,32 @@
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="C220" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="C221" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -6770,10 +6908,10 @@
         <v>1</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="C223" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -6781,10 +6919,10 @@
         <v>1</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="C224" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -6792,43 +6930,43 @@
         <v>1</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="C225" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="C226" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="C227" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="C228" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -6836,10 +6974,10 @@
         <v>1</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="C229" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -6847,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="C230" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -6858,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="C231" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -6869,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="C232" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -6880,10 +7018,10 @@
         <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="C233" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -6891,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="C234" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -6902,10 +7040,10 @@
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="C235" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -6913,10 +7051,10 @@
         <v>1</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="C236" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -6924,10 +7062,10 @@
         <v>1</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="C237" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -6935,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="C238" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -6946,43 +7084,43 @@
         <v>1</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="C239" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="C240" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="C241" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="C242" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -6990,10 +7128,10 @@
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C243" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -7001,10 +7139,10 @@
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="C244" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -7012,10 +7150,10 @@
         <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="C245" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -7023,10 +7161,10 @@
         <v>1</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="C246" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -7034,10 +7172,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="C247" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -7045,10 +7183,10 @@
         <v>1</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>494</v>
+        <v>1274</v>
       </c>
       <c r="C248" t="s">
-        <v>495</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -7056,10 +7194,10 @@
         <v>1</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>496</v>
+        <v>1276</v>
       </c>
       <c r="C249" t="s">
-        <v>497</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -7067,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="C250" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -7078,10 +7216,10 @@
         <v>1</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="C251" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -7089,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="C252" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -7100,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C253" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -7111,10 +7249,10 @@
         <v>1</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="C254" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -7122,10 +7260,10 @@
         <v>1</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>508</v>
+        <v>1319</v>
       </c>
       <c r="C255" t="s">
-        <v>509</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -7133,10 +7271,10 @@
         <v>1</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="C256" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -7144,10 +7282,10 @@
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="C257" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -7155,10 +7293,10 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="C258" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -7166,10 +7304,10 @@
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="C259" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -7177,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="C260" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -7188,10 +7326,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C261" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -7199,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="C262" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -7210,10 +7348,10 @@
         <v>1</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="C263" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -7221,10 +7359,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="C264" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -7232,10 +7370,10 @@
         <v>1</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="C265" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -7243,21 +7381,21 @@
         <v>1</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="C266" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="C267" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -7265,10 +7403,10 @@
         <v>1</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="C268" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -7276,10 +7414,10 @@
         <v>1</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="C269" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -7287,10 +7425,10 @@
         <v>1</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="C270" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -7298,10 +7436,10 @@
         <v>1</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="C271" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -7309,10 +7447,10 @@
         <v>1</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="C272" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -7320,43 +7458,43 @@
         <v>1</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="C273" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="C274" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="C275" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="C276" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -7364,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="C277" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -7375,32 +7513,32 @@
         <v>1</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="C278" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="C279" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="C280" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -7408,32 +7546,32 @@
         <v>2</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="C281" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="C282" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="C283" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -7441,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="C284" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -7452,21 +7590,21 @@
         <v>1</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="C285" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="C286" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -7474,10 +7612,10 @@
         <v>2</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="C287" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -7485,10 +7623,10 @@
         <v>2</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="C288" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -7496,32 +7634,32 @@
         <v>2</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="C289" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="C290" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="C291" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -7529,10 +7667,10 @@
         <v>2</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="C292" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -7540,21 +7678,21 @@
         <v>2</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="C293" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="C294" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -7562,10 +7700,10 @@
         <v>1</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="C295" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -7573,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>590</v>
+        <v>1321</v>
       </c>
       <c r="C296" t="s">
-        <v>591</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -7584,10 +7722,10 @@
         <v>1</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>592</v>
+        <v>1323</v>
       </c>
       <c r="C297" t="s">
-        <v>593</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -7595,10 +7733,10 @@
         <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="C298" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -7606,43 +7744,43 @@
         <v>1</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="C299" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>598</v>
+        <v>535</v>
       </c>
       <c r="C300" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="C301" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="C302" t="s">
-        <v>603</v>
+        <v>538</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -7650,10 +7788,10 @@
         <v>1</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="C303" t="s">
-        <v>605</v>
+        <v>540</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -7661,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>606</v>
+        <v>1278</v>
       </c>
       <c r="C304" t="s">
-        <v>607</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -7672,10 +7810,10 @@
         <v>1</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>608</v>
+        <v>1280</v>
       </c>
       <c r="C305" t="s">
-        <v>609</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -7683,10 +7821,10 @@
         <v>1</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>610</v>
+        <v>1282</v>
       </c>
       <c r="C306" t="s">
-        <v>611</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -7694,10 +7832,10 @@
         <v>1</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>612</v>
+        <v>1284</v>
       </c>
       <c r="C307" t="s">
-        <v>613</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -7705,76 +7843,76 @@
         <v>1</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>614</v>
+        <v>1286</v>
       </c>
       <c r="C308" t="s">
-        <v>615</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="C309" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>618</v>
+        <v>541</v>
       </c>
       <c r="C310" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C311" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
       <c r="C312" t="s">
-        <v>623</v>
+        <v>546</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>624</v>
+        <v>561</v>
       </c>
       <c r="C313" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="C314" t="s">
-        <v>627</v>
+        <v>564</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -7782,10 +7920,10 @@
         <v>1</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
       <c r="C315" t="s">
-        <v>629</v>
+        <v>566</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -7793,10 +7931,10 @@
         <v>1</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="C316" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -7804,10 +7942,10 @@
         <v>1</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
       <c r="C317" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -7815,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>634</v>
+        <v>571</v>
       </c>
       <c r="C318" t="s">
-        <v>635</v>
+        <v>572</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -7826,10 +7964,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="C319" t="s">
-        <v>637</v>
+        <v>574</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -7837,10 +7975,10 @@
         <v>1</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="C320" t="s">
-        <v>639</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -7848,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>640</v>
+        <v>577</v>
       </c>
       <c r="C321" t="s">
-        <v>641</v>
+        <v>578</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -7859,21 +7997,21 @@
         <v>1</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="C322" t="s">
-        <v>643</v>
+        <v>580</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>644</v>
+        <v>581</v>
       </c>
       <c r="C323" t="s">
-        <v>645</v>
+        <v>582</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -7881,10 +8019,10 @@
         <v>1</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>646</v>
+        <v>583</v>
       </c>
       <c r="C324" t="s">
-        <v>647</v>
+        <v>584</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -7892,10 +8030,10 @@
         <v>1</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="C325" t="s">
-        <v>649</v>
+        <v>586</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -7903,21 +8041,21 @@
         <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="C326" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>652</v>
+        <v>589</v>
       </c>
       <c r="C327" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -7925,32 +8063,32 @@
         <v>1</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="C328" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="C329" t="s">
-        <v>657</v>
+        <v>594</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="C330" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -7958,43 +8096,43 @@
         <v>2</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>660</v>
+        <v>597</v>
       </c>
       <c r="C331" t="s">
-        <v>661</v>
+        <v>598</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>662</v>
+        <v>599</v>
       </c>
       <c r="C332" t="s">
-        <v>663</v>
+        <v>600</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>664</v>
+        <v>601</v>
       </c>
       <c r="C333" t="s">
-        <v>665</v>
+        <v>602</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>666</v>
+        <v>603</v>
       </c>
       <c r="C334" t="s">
-        <v>667</v>
+        <v>604</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -8002,10 +8140,10 @@
         <v>1</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="C335" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -8013,10 +8151,10 @@
         <v>1</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>670</v>
+        <v>607</v>
       </c>
       <c r="C336" t="s">
-        <v>671</v>
+        <v>608</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -8024,10 +8162,10 @@
         <v>1</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>672</v>
+        <v>609</v>
       </c>
       <c r="C337" t="s">
-        <v>673</v>
+        <v>610</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -8035,10 +8173,10 @@
         <v>1</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>674</v>
+        <v>611</v>
       </c>
       <c r="C338" t="s">
-        <v>675</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -8046,43 +8184,43 @@
         <v>1</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>676</v>
+        <v>613</v>
       </c>
       <c r="C339" t="s">
-        <v>677</v>
+        <v>614</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>678</v>
+        <v>615</v>
       </c>
       <c r="C340" t="s">
-        <v>679</v>
+        <v>616</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>680</v>
+        <v>617</v>
       </c>
       <c r="C341" t="s">
-        <v>681</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>682</v>
+        <v>619</v>
       </c>
       <c r="C342" t="s">
-        <v>683</v>
+        <v>620</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -8090,65 +8228,65 @@
         <v>2</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>684</v>
+        <v>621</v>
       </c>
       <c r="C343" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="C344" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="C345" t="s">
-        <v>689</v>
+        <v>626</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>690</v>
+        <v>628</v>
       </c>
       <c r="C346" t="s">
-        <v>691</v>
+        <v>627</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>692</v>
+        <v>629</v>
       </c>
       <c r="C347" t="s">
-        <v>693</v>
+        <v>630</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>694</v>
+        <v>631</v>
       </c>
       <c r="C348" t="s">
-        <v>695</v>
+        <v>632</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -8156,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>696</v>
+        <v>633</v>
       </c>
       <c r="C349" t="s">
-        <v>697</v>
+        <v>634</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -8167,21 +8305,21 @@
         <v>1</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="C350" t="s">
-        <v>699</v>
+        <v>635</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="C351" t="s">
-        <v>701</v>
+        <v>638</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -8189,10 +8327,10 @@
         <v>1</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>702</v>
+        <v>639</v>
       </c>
       <c r="C352" t="s">
-        <v>703</v>
+        <v>640</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -8200,10 +8338,10 @@
         <v>1</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>704</v>
+        <v>641</v>
       </c>
       <c r="C353" t="s">
-        <v>705</v>
+        <v>642</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -8211,10 +8349,10 @@
         <v>1</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>706</v>
+        <v>643</v>
       </c>
       <c r="C354" t="s">
-        <v>707</v>
+        <v>644</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -8222,10 +8360,10 @@
         <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>708</v>
+        <v>1325</v>
       </c>
       <c r="C355" t="s">
-        <v>709</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -8233,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>710</v>
+        <v>1327</v>
       </c>
       <c r="C356" t="s">
-        <v>711</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -8244,10 +8382,10 @@
         <v>1</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
       <c r="C357" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -8255,10 +8393,10 @@
         <v>1</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="C358" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -8266,65 +8404,65 @@
         <v>1</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="C359" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
       <c r="C360" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
       <c r="C361" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="C362" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
       <c r="C363" t="s">
-        <v>725</v>
+        <v>658</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>726</v>
+        <v>659</v>
       </c>
       <c r="C364" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -8332,43 +8470,43 @@
         <v>2</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="C365" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
       <c r="C367" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="C368" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -8376,21 +8514,21 @@
         <v>1</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="C369" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>739</v>
+      <c r="B370" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C370" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -8398,153 +8536,153 @@
         <v>1</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
       <c r="C371" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
       <c r="C372" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
       <c r="C373" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="C374" t="s">
-        <v>747</v>
+        <v>680</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
       <c r="C375" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="C376" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="C377" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="C378" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
       <c r="C379" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="C380" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
       <c r="C381" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="C382" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
       <c r="C383" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="C384" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -8552,142 +8690,142 @@
         <v>2</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="C385" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="C386" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
       <c r="C387" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
       <c r="C388" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="C389" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C390" t="s">
-        <v>779</v>
+      <c r="B390" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="C391" t="s">
-        <v>781</v>
+        <v>714</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>782</v>
+        <v>715</v>
       </c>
       <c r="C392" t="s">
-        <v>783</v>
+        <v>716</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>784</v>
+        <v>717</v>
       </c>
       <c r="C393" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
       <c r="C394" t="s">
-        <v>787</v>
+        <v>720</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
       <c r="C395" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
       <c r="C396" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
       <c r="C397" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -8695,32 +8833,32 @@
         <v>2</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
       <c r="C398" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="C399" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
       <c r="C400" t="s">
-        <v>799</v>
+        <v>732</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -8728,98 +8866,98 @@
         <v>2</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="C401" t="s">
-        <v>801</v>
+        <v>734</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
       <c r="C402" t="s">
-        <v>803</v>
+        <v>736</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>804</v>
+        <v>737</v>
       </c>
       <c r="C403" t="s">
-        <v>805</v>
+        <v>738</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>806</v>
+        <v>739</v>
       </c>
       <c r="C404" t="s">
-        <v>807</v>
+        <v>740</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="C405" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
       <c r="C406" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>812</v>
+        <v>745</v>
       </c>
       <c r="C407" t="s">
-        <v>813</v>
+        <v>746</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>814</v>
+        <v>747</v>
       </c>
       <c r="C408" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>816</v>
+        <v>743</v>
       </c>
       <c r="C409" t="s">
-        <v>817</v>
+        <v>744</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -8827,10 +8965,10 @@
         <v>2</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>818</v>
+        <v>745</v>
       </c>
       <c r="C410" t="s">
-        <v>819</v>
+        <v>746</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -8838,10 +8976,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>820</v>
+        <v>747</v>
       </c>
       <c r="C411" t="s">
-        <v>821</v>
+        <v>748</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -8849,10 +8987,10 @@
         <v>1</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>822</v>
+        <v>1329</v>
       </c>
       <c r="C412" t="s">
-        <v>823</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -8860,10 +8998,10 @@
         <v>1</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>824</v>
+        <v>749</v>
       </c>
       <c r="C413" t="s">
-        <v>825</v>
+        <v>750</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -8871,21 +9009,21 @@
         <v>1</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>826</v>
+        <v>751</v>
       </c>
       <c r="C414" t="s">
-        <v>827</v>
+        <v>752</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>828</v>
+        <v>753</v>
       </c>
       <c r="C415" t="s">
-        <v>829</v>
+        <v>754</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -8893,32 +9031,32 @@
         <v>1</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>830</v>
+        <v>755</v>
       </c>
       <c r="C416" t="s">
-        <v>831</v>
+        <v>756</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>832</v>
+        <v>1331</v>
       </c>
       <c r="C417" t="s">
-        <v>833</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>834</v>
+        <v>1333</v>
       </c>
       <c r="C418" t="s">
-        <v>835</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -8926,76 +9064,76 @@
         <v>2</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>836</v>
+        <v>757</v>
       </c>
       <c r="C419" t="s">
-        <v>837</v>
+        <v>758</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>838</v>
+        <v>759</v>
       </c>
       <c r="C420" t="s">
-        <v>839</v>
+        <v>760</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>840</v>
+        <v>761</v>
       </c>
       <c r="C421" t="s">
-        <v>841</v>
+        <v>762</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>842</v>
+        <v>763</v>
       </c>
       <c r="C422" t="s">
-        <v>843</v>
+        <v>764</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>844</v>
+        <v>765</v>
       </c>
       <c r="C423" t="s">
-        <v>845</v>
+        <v>766</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>846</v>
+        <v>767</v>
       </c>
       <c r="C424" t="s">
-        <v>847</v>
+        <v>768</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>848</v>
+        <v>769</v>
       </c>
       <c r="C425" t="s">
-        <v>849</v>
+        <v>770</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -9003,87 +9141,87 @@
         <v>2</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>850</v>
+        <v>771</v>
       </c>
       <c r="C426" t="s">
-        <v>851</v>
+        <v>772</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>852</v>
+        <v>773</v>
       </c>
       <c r="C427" t="s">
-        <v>853</v>
+        <v>774</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>854</v>
+        <v>775</v>
       </c>
       <c r="C428" t="s">
-        <v>855</v>
+        <v>776</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>856</v>
+        <v>777</v>
       </c>
       <c r="C429" t="s">
-        <v>857</v>
+        <v>778</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>858</v>
+        <v>779</v>
       </c>
       <c r="C430" t="s">
-        <v>859</v>
+        <v>780</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>860</v>
+        <v>781</v>
       </c>
       <c r="C431" t="s">
-        <v>861</v>
+        <v>782</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>862</v>
+        <v>783</v>
       </c>
       <c r="C432" t="s">
-        <v>863</v>
+        <v>784</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>864</v>
+        <v>785</v>
       </c>
       <c r="C433" t="s">
-        <v>865</v>
+        <v>786</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -9091,120 +9229,120 @@
         <v>1</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>866</v>
+        <v>787</v>
       </c>
       <c r="C434" t="s">
-        <v>867</v>
+        <v>788</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>868</v>
+        <v>789</v>
       </c>
       <c r="C435" t="s">
-        <v>869</v>
+        <v>790</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>870</v>
+        <v>791</v>
       </c>
       <c r="C436" t="s">
-        <v>871</v>
+        <v>792</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>872</v>
+        <v>793</v>
       </c>
       <c r="C437" t="s">
-        <v>873</v>
+        <v>794</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>874</v>
+        <v>795</v>
       </c>
       <c r="C438" t="s">
-        <v>875</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>876</v>
+        <v>796</v>
       </c>
       <c r="C439" t="s">
-        <v>877</v>
+        <v>797</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>879</v>
+        <v>798</v>
       </c>
       <c r="C440" t="s">
-        <v>878</v>
+        <v>799</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="C441" t="s">
-        <v>881</v>
+        <v>801</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>882</v>
+        <v>802</v>
       </c>
       <c r="C442" t="s">
-        <v>883</v>
+        <v>803</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>884</v>
+        <v>804</v>
       </c>
       <c r="C443" t="s">
-        <v>885</v>
+        <v>805</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>886</v>
+        <v>806</v>
       </c>
       <c r="C444" t="s">
-        <v>887</v>
+        <v>807</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -9212,120 +9350,120 @@
         <v>1</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>888</v>
+        <v>808</v>
       </c>
       <c r="C445" t="s">
-        <v>889</v>
+        <v>809</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="C446" t="s">
-        <v>891</v>
+        <v>811</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>892</v>
+        <v>812</v>
       </c>
       <c r="C447" t="s">
-        <v>893</v>
+        <v>813</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>894</v>
+        <v>814</v>
       </c>
       <c r="C448" t="s">
-        <v>895</v>
+        <v>815</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>896</v>
+        <v>816</v>
       </c>
       <c r="C449" t="s">
-        <v>897</v>
+        <v>817</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>898</v>
+        <v>818</v>
       </c>
       <c r="C450" t="s">
-        <v>899</v>
+        <v>819</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="C451" t="s">
-        <v>901</v>
+        <v>821</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>902</v>
+        <v>822</v>
       </c>
       <c r="C452" t="s">
-        <v>903</v>
+        <v>823</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>904</v>
+        <v>824</v>
       </c>
       <c r="C453" t="s">
-        <v>905</v>
+        <v>825</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>906</v>
+        <v>826</v>
       </c>
       <c r="C454" t="s">
-        <v>907</v>
+        <v>827</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>908</v>
+        <v>828</v>
       </c>
       <c r="C455" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -9333,21 +9471,21 @@
         <v>2</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="C456" t="s">
-        <v>911</v>
+        <v>831</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>912</v>
+        <v>832</v>
       </c>
       <c r="C457" t="s">
-        <v>913</v>
+        <v>833</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -9355,10 +9493,10 @@
         <v>2</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>914</v>
+        <v>834</v>
       </c>
       <c r="C458" t="s">
-        <v>915</v>
+        <v>835</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -9366,10 +9504,10 @@
         <v>1</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="C459" t="s">
-        <v>917</v>
+        <v>837</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -9377,10 +9515,10 @@
         <v>1</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="C460" t="s">
-        <v>919</v>
+        <v>839</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -9388,10 +9526,10 @@
         <v>1</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="C461" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -9399,10 +9537,10 @@
         <v>2</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="C462" t="s">
-        <v>923</v>
+        <v>843</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -9410,10 +9548,10 @@
         <v>2</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>924</v>
+        <v>844</v>
       </c>
       <c r="C463" t="s">
-        <v>925</v>
+        <v>845</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -9421,32 +9559,32 @@
         <v>2</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>926</v>
+        <v>846</v>
       </c>
       <c r="C464" t="s">
-        <v>927</v>
+        <v>847</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>928</v>
+        <v>849</v>
       </c>
       <c r="C465" t="s">
-        <v>929</v>
+        <v>848</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>930</v>
+        <v>850</v>
       </c>
       <c r="C466" t="s">
-        <v>931</v>
+        <v>851</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9454,10 +9592,10 @@
         <v>1</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>932</v>
+        <v>852</v>
       </c>
       <c r="C467" t="s">
-        <v>933</v>
+        <v>853</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9465,10 +9603,10 @@
         <v>1</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>934</v>
+        <v>854</v>
       </c>
       <c r="C468" t="s">
-        <v>935</v>
+        <v>855</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9476,10 +9614,10 @@
         <v>1</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>936</v>
+        <v>856</v>
       </c>
       <c r="C469" t="s">
-        <v>937</v>
+        <v>857</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9487,43 +9625,43 @@
         <v>1</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>938</v>
+        <v>858</v>
       </c>
       <c r="C470" t="s">
-        <v>939</v>
+        <v>859</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>940</v>
+        <v>860</v>
       </c>
       <c r="C471" t="s">
-        <v>941</v>
+        <v>861</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>942</v>
+        <v>862</v>
       </c>
       <c r="C472" t="s">
-        <v>943</v>
+        <v>863</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>944</v>
+        <v>864</v>
       </c>
       <c r="C473" t="s">
-        <v>945</v>
+        <v>865</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9531,87 +9669,87 @@
         <v>2</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>946</v>
+        <v>866</v>
       </c>
       <c r="C474" t="s">
-        <v>947</v>
+        <v>867</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>948</v>
+        <v>868</v>
       </c>
       <c r="C475" t="s">
-        <v>949</v>
+        <v>869</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>950</v>
+        <v>870</v>
       </c>
       <c r="C476" t="s">
-        <v>951</v>
+        <v>871</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>952</v>
+        <v>872</v>
       </c>
       <c r="C477" t="s">
-        <v>953</v>
+        <v>873</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>954</v>
+        <v>874</v>
       </c>
       <c r="C478" t="s">
-        <v>955</v>
+        <v>875</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>956</v>
+        <v>876</v>
       </c>
       <c r="C479" t="s">
-        <v>957</v>
+        <v>877</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>958</v>
+        <v>878</v>
       </c>
       <c r="C480" t="s">
-        <v>959</v>
+        <v>879</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="C481" t="s">
-        <v>961</v>
+        <v>881</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9619,21 +9757,21 @@
         <v>1</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>962</v>
+        <v>882</v>
       </c>
       <c r="C482" t="s">
-        <v>963</v>
+        <v>883</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>964</v>
+        <v>884</v>
       </c>
       <c r="C483" t="s">
-        <v>965</v>
+        <v>885</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9641,10 +9779,10 @@
         <v>1</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>966</v>
+        <v>886</v>
       </c>
       <c r="C484" t="s">
-        <v>967</v>
+        <v>887</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9652,21 +9790,21 @@
         <v>1</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>968</v>
+        <v>888</v>
       </c>
       <c r="C485" t="s">
-        <v>969</v>
+        <v>889</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>970</v>
+        <v>890</v>
       </c>
       <c r="C486" t="s">
-        <v>971</v>
+        <v>891</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9674,21 +9812,21 @@
         <v>2</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>972</v>
+        <v>892</v>
       </c>
       <c r="C487" t="s">
-        <v>973</v>
+        <v>893</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>974</v>
+        <v>894</v>
       </c>
       <c r="C488" t="s">
-        <v>975</v>
+        <v>895</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9696,109 +9834,109 @@
         <v>2</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>976</v>
+        <v>896</v>
       </c>
       <c r="C489" t="s">
-        <v>977</v>
+        <v>897</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>978</v>
+        <v>898</v>
       </c>
       <c r="C490" t="s">
-        <v>979</v>
+        <v>899</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="C491" t="s">
-        <v>981</v>
+        <v>901</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>982</v>
+        <v>902</v>
       </c>
       <c r="C492" t="s">
-        <v>983</v>
+        <v>903</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>984</v>
+        <v>904</v>
       </c>
       <c r="C493" t="s">
-        <v>985</v>
+        <v>905</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>986</v>
+        <v>906</v>
       </c>
       <c r="C494" t="s">
-        <v>987</v>
+        <v>907</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>988</v>
+        <v>1335</v>
       </c>
       <c r="C495" t="s">
-        <v>989</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>990</v>
+        <v>908</v>
       </c>
       <c r="C496" t="s">
-        <v>991</v>
+        <v>909</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>992</v>
+        <v>910</v>
       </c>
       <c r="C497" t="s">
-        <v>993</v>
+        <v>911</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>994</v>
+        <v>1289</v>
       </c>
       <c r="C498" t="s">
-        <v>995</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9806,10 +9944,10 @@
         <v>2</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
       <c r="C499" t="s">
-        <v>997</v>
+        <v>913</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9817,32 +9955,32 @@
         <v>2</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="C500" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
       <c r="C501" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
       <c r="C502" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9850,43 +9988,43 @@
         <v>2</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="C503" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="C504" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1008</v>
+        <v>924</v>
       </c>
       <c r="C505" t="s">
-        <v>1009</v>
+        <v>925</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="C506" t="s">
-        <v>1011</v>
+        <v>927</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9894,10 +10032,10 @@
         <v>1</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="C507" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9905,32 +10043,32 @@
         <v>1</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="C508" t="s">
-        <v>1015</v>
+        <v>931</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
       <c r="C509" t="s">
-        <v>1017</v>
+        <v>933</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1018</v>
+        <v>934</v>
       </c>
       <c r="C510" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9938,32 +10076,32 @@
         <v>2</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1020</v>
+        <v>936</v>
       </c>
       <c r="C511" t="s">
-        <v>1021</v>
+        <v>937</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1022</v>
+        <v>938</v>
       </c>
       <c r="C512" t="s">
-        <v>1023</v>
+        <v>939</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1024</v>
+        <v>940</v>
       </c>
       <c r="C513" t="s">
-        <v>1025</v>
+        <v>941</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9971,10 +10109,10 @@
         <v>2</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="C514" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9982,21 +10120,21 @@
         <v>2</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="C515" t="s">
-        <v>1029</v>
+        <v>945</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1030</v>
+        <v>946</v>
       </c>
       <c r="C516" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,43 +10142,43 @@
         <v>2</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1032</v>
+        <v>948</v>
       </c>
       <c r="C517" t="s">
-        <v>1033</v>
+        <v>949</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1034</v>
+        <v>950</v>
       </c>
       <c r="C518" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1036</v>
+        <v>952</v>
       </c>
       <c r="C519" t="s">
-        <v>1037</v>
+        <v>953</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1038</v>
+        <v>954</v>
       </c>
       <c r="C520" t="s">
-        <v>1039</v>
+        <v>955</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,10 +10186,10 @@
         <v>2</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1040</v>
+        <v>956</v>
       </c>
       <c r="C521" t="s">
-        <v>1041</v>
+        <v>957</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,10 +10197,10 @@
         <v>2</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1042</v>
+        <v>958</v>
       </c>
       <c r="C522" t="s">
-        <v>1043</v>
+        <v>959</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,21 +10208,21 @@
         <v>1</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1044</v>
+        <v>960</v>
       </c>
       <c r="C523" t="s">
-        <v>1045</v>
+        <v>961</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1046</v>
+        <v>962</v>
       </c>
       <c r="C524" t="s">
-        <v>1047</v>
+        <v>963</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10092,10 +10230,10 @@
         <v>2</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1048</v>
+        <v>1291</v>
       </c>
       <c r="C525" t="s">
-        <v>1049</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10103,87 +10241,87 @@
         <v>2</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1050</v>
+        <v>964</v>
       </c>
       <c r="C526" t="s">
-        <v>1051</v>
+        <v>965</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1052</v>
+        <v>966</v>
       </c>
       <c r="C527" t="s">
-        <v>1053</v>
+        <v>967</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1054</v>
+        <v>1293</v>
       </c>
       <c r="C528" t="s">
-        <v>1055</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1056</v>
+        <v>968</v>
       </c>
       <c r="C529" t="s">
-        <v>1057</v>
+        <v>969</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1058</v>
+        <v>970</v>
       </c>
       <c r="C530" t="s">
-        <v>1059</v>
+        <v>971</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1060</v>
+        <v>972</v>
       </c>
       <c r="C531" t="s">
-        <v>1061</v>
+        <v>973</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1062</v>
+        <v>974</v>
       </c>
       <c r="C532" t="s">
-        <v>1063</v>
+        <v>975</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1064</v>
+        <v>976</v>
       </c>
       <c r="C533" t="s">
-        <v>1065</v>
+        <v>977</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10191,10 +10329,10 @@
         <v>1</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1066</v>
+        <v>1295</v>
       </c>
       <c r="C534" t="s">
-        <v>1067</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10202,10 +10340,10 @@
         <v>1</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1068</v>
+        <v>978</v>
       </c>
       <c r="C535" t="s">
-        <v>1069</v>
+        <v>979</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10213,120 +10351,120 @@
         <v>1</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1070</v>
+        <v>980</v>
       </c>
       <c r="C536" t="s">
-        <v>1071</v>
+        <v>981</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1072</v>
+        <v>982</v>
       </c>
       <c r="C537" t="s">
-        <v>1073</v>
+        <v>983</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1074</v>
+        <v>984</v>
       </c>
       <c r="C538" t="s">
-        <v>1075</v>
+        <v>985</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1076</v>
+        <v>986</v>
       </c>
       <c r="C539" t="s">
-        <v>1077</v>
+        <v>987</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1078</v>
+        <v>988</v>
       </c>
       <c r="C540" t="s">
-        <v>1079</v>
+        <v>989</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1080</v>
+        <v>990</v>
       </c>
       <c r="C541" t="s">
-        <v>1081</v>
+        <v>991</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1082</v>
+        <v>992</v>
       </c>
       <c r="C542" t="s">
-        <v>1083</v>
+        <v>993</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1084</v>
+        <v>994</v>
       </c>
       <c r="C543" t="s">
-        <v>1085</v>
+        <v>995</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1086</v>
+        <v>996</v>
       </c>
       <c r="C544" t="s">
-        <v>1087</v>
+        <v>997</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1088</v>
+        <v>998</v>
       </c>
       <c r="C545" t="s">
-        <v>1089</v>
+        <v>999</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="C546" t="s">
-        <v>1091</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10334,10 +10472,10 @@
         <v>2</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1092</v>
+        <v>1002</v>
       </c>
       <c r="C547" t="s">
-        <v>1093</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10345,32 +10483,32 @@
         <v>2</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1094</v>
+        <v>1004</v>
       </c>
       <c r="C548" t="s">
-        <v>1095</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1096</v>
+        <v>1006</v>
       </c>
       <c r="C549" t="s">
-        <v>1097</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1098</v>
+        <v>1008</v>
       </c>
       <c r="C550" t="s">
-        <v>1099</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10378,32 +10516,32 @@
         <v>1</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="C551" t="s">
-        <v>1101</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1102</v>
+        <v>1012</v>
       </c>
       <c r="C552" t="s">
-        <v>1103</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1104</v>
+        <v>1014</v>
       </c>
       <c r="C553" t="s">
-        <v>1105</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10411,21 +10549,21 @@
         <v>2</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1106</v>
+        <v>1016</v>
       </c>
       <c r="C554" t="s">
-        <v>1107</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1108</v>
+        <v>1018</v>
       </c>
       <c r="C555" t="s">
-        <v>1109</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10433,32 +10571,32 @@
         <v>1</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1110</v>
+        <v>1020</v>
       </c>
       <c r="C556" t="s">
-        <v>1111</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1112</v>
+        <v>1022</v>
       </c>
       <c r="C557" t="s">
-        <v>1113</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1114</v>
+        <v>1024</v>
       </c>
       <c r="C558" t="s">
-        <v>1115</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10466,10 +10604,10 @@
         <v>1</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1116</v>
+        <v>1026</v>
       </c>
       <c r="C559" t="s">
-        <v>1117</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10477,10 +10615,10 @@
         <v>1</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1118</v>
+        <v>1028</v>
       </c>
       <c r="C560" t="s">
-        <v>1119</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10488,10 +10626,10 @@
         <v>1</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1120</v>
+        <v>1030</v>
       </c>
       <c r="C561" t="s">
-        <v>1121</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10499,10 +10637,10 @@
         <v>1</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1122</v>
+        <v>1032</v>
       </c>
       <c r="C562" t="s">
-        <v>1123</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10510,10 +10648,10 @@
         <v>1</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1124</v>
+        <v>1034</v>
       </c>
       <c r="C563" t="s">
-        <v>1125</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10521,10 +10659,10 @@
         <v>1</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1126</v>
+        <v>1036</v>
       </c>
       <c r="C564" t="s">
-        <v>1127</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10532,10 +10670,10 @@
         <v>1</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1128</v>
+        <v>1038</v>
       </c>
       <c r="C565" t="s">
-        <v>1129</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10543,21 +10681,21 @@
         <v>1</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1130</v>
+        <v>1337</v>
       </c>
       <c r="C566" t="s">
-        <v>1131</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1132</v>
+        <v>1339</v>
       </c>
       <c r="C567" t="s">
-        <v>1133</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10565,10 +10703,10 @@
         <v>1</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1134</v>
+        <v>1341</v>
       </c>
       <c r="C568" t="s">
-        <v>1135</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10576,21 +10714,21 @@
         <v>1</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1136</v>
+        <v>1343</v>
       </c>
       <c r="C569" t="s">
-        <v>1137</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1138</v>
+        <v>1040</v>
       </c>
       <c r="C570" t="s">
-        <v>1139</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10598,10 +10736,10 @@
         <v>1</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1140</v>
+        <v>1042</v>
       </c>
       <c r="C571" t="s">
-        <v>1141</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10609,65 +10747,65 @@
         <v>1</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1142</v>
+        <v>1044</v>
       </c>
       <c r="C572" t="s">
-        <v>1143</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1144</v>
+        <v>1046</v>
       </c>
       <c r="C573" t="s">
-        <v>1145</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1146</v>
+        <v>1048</v>
       </c>
       <c r="C574" t="s">
-        <v>1147</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1148</v>
+        <v>1050</v>
       </c>
       <c r="C575" t="s">
-        <v>1149</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1150</v>
+        <v>1052</v>
       </c>
       <c r="C576" t="s">
-        <v>1151</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1152</v>
+        <v>1054</v>
       </c>
       <c r="C577" t="s">
-        <v>1153</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10675,10 +10813,10 @@
         <v>2</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1154</v>
+        <v>1056</v>
       </c>
       <c r="C578" t="s">
-        <v>1155</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10686,32 +10824,32 @@
         <v>1</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1156</v>
+        <v>1058</v>
       </c>
       <c r="C579" t="s">
-        <v>1157</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1158</v>
+        <v>1060</v>
       </c>
       <c r="C580" t="s">
-        <v>1159</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1160</v>
+        <v>1062</v>
       </c>
       <c r="C581" t="s">
-        <v>1161</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -10719,10 +10857,10 @@
         <v>1</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1162</v>
+        <v>1064</v>
       </c>
       <c r="C582" t="s">
-        <v>1163</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -10730,43 +10868,43 @@
         <v>1</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1164</v>
+        <v>1066</v>
       </c>
       <c r="C583" t="s">
-        <v>1165</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1166</v>
+        <v>1068</v>
       </c>
       <c r="C584" t="s">
-        <v>1167</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1168</v>
+        <v>1070</v>
       </c>
       <c r="C585" t="s">
-        <v>1169</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1170</v>
+        <v>1072</v>
       </c>
       <c r="C586" t="s">
-        <v>1171</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -10774,10 +10912,10 @@
         <v>2</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1172</v>
+        <v>1074</v>
       </c>
       <c r="C587" t="s">
-        <v>1173</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -10785,43 +10923,43 @@
         <v>2</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1174</v>
+        <v>1076</v>
       </c>
       <c r="C588" t="s">
-        <v>1175</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>1176</v>
+        <v>1078</v>
       </c>
       <c r="C589" t="s">
-        <v>1177</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1178</v>
+        <v>1080</v>
       </c>
       <c r="C590" t="s">
-        <v>1179</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1180</v>
+        <v>1082</v>
       </c>
       <c r="C591" t="s">
-        <v>1181</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -10829,10 +10967,10 @@
         <v>1</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1182</v>
+        <v>1084</v>
       </c>
       <c r="C592" t="s">
-        <v>1183</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -10840,21 +10978,21 @@
         <v>1</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>1184</v>
+        <v>1086</v>
       </c>
       <c r="C593" t="s">
-        <v>1185</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1186</v>
+        <v>1088</v>
       </c>
       <c r="C594" t="s">
-        <v>1187</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -10862,21 +11000,21 @@
         <v>1</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1188</v>
+        <v>1090</v>
       </c>
       <c r="C595" t="s">
-        <v>1189</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1190</v>
+        <v>1092</v>
       </c>
       <c r="C596" t="s">
-        <v>1191</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -10884,10 +11022,10 @@
         <v>1</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1192</v>
+        <v>1094</v>
       </c>
       <c r="C597" t="s">
-        <v>1193</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -10895,10 +11033,10 @@
         <v>1</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1194</v>
+        <v>1096</v>
       </c>
       <c r="C598" t="s">
-        <v>1195</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -10906,10 +11044,10 @@
         <v>1</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1196</v>
+        <v>1097</v>
       </c>
       <c r="C599" t="s">
-        <v>1197</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -10917,21 +11055,21 @@
         <v>1</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1198</v>
+        <v>1099</v>
       </c>
       <c r="C600" t="s">
-        <v>1199</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="C601" t="s">
-        <v>1201</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -10939,10 +11077,10 @@
         <v>2</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="C602" t="s">
-        <v>1203</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -10950,10 +11088,10 @@
         <v>2</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1204</v>
+        <v>1105</v>
       </c>
       <c r="C603" t="s">
-        <v>1205</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -10961,10 +11099,10 @@
         <v>2</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1206</v>
+        <v>1107</v>
       </c>
       <c r="C604" t="s">
-        <v>1207</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -10972,21 +11110,21 @@
         <v>2</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1208</v>
+        <v>1109</v>
       </c>
       <c r="C605" t="s">
-        <v>1209</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1210</v>
+        <v>1111</v>
       </c>
       <c r="C606" t="s">
-        <v>1211</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -10994,32 +11132,32 @@
         <v>1</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1212</v>
+        <v>1113</v>
       </c>
       <c r="C607" t="s">
-        <v>1213</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1214</v>
+        <v>1115</v>
       </c>
       <c r="C608" t="s">
-        <v>1215</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1216</v>
+        <v>1116</v>
       </c>
       <c r="C609" t="s">
-        <v>1217</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11027,10 +11165,10 @@
         <v>1</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1218</v>
+        <v>1118</v>
       </c>
       <c r="C610" t="s">
-        <v>1219</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11038,10 +11176,10 @@
         <v>1</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1220</v>
+        <v>1120</v>
       </c>
       <c r="C611" t="s">
-        <v>1221</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11049,87 +11187,87 @@
         <v>1</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1222</v>
+        <v>1122</v>
       </c>
       <c r="C612" t="s">
-        <v>1223</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1224</v>
+        <v>1124</v>
       </c>
       <c r="C613" t="s">
-        <v>1225</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1226</v>
+        <v>1126</v>
       </c>
       <c r="C614" t="s">
-        <v>1227</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1228</v>
+        <v>1128</v>
       </c>
       <c r="C615" t="s">
-        <v>1229</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1230</v>
+        <v>1130</v>
       </c>
       <c r="C616" t="s">
-        <v>1231</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1232</v>
+        <v>1132</v>
       </c>
       <c r="C617" t="s">
-        <v>1233</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1234</v>
+        <v>1134</v>
       </c>
       <c r="C618" t="s">
-        <v>1235</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1236</v>
+        <v>1136</v>
       </c>
       <c r="C619" t="s">
-        <v>1237</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -11137,21 +11275,21 @@
         <v>2</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1238</v>
+        <v>1138</v>
       </c>
       <c r="C620" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1240</v>
+        <v>1140</v>
       </c>
       <c r="C621" t="s">
-        <v>1241</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -11159,10 +11297,10 @@
         <v>1</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1242</v>
+        <v>1142</v>
       </c>
       <c r="C622" t="s">
-        <v>1243</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -11170,10 +11308,10 @@
         <v>1</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1244</v>
+        <v>1144</v>
       </c>
       <c r="C623" t="s">
-        <v>1245</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -11181,10 +11319,10 @@
         <v>1</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1246</v>
+        <v>1146</v>
       </c>
       <c r="C624" t="s">
-        <v>1247</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -11192,10 +11330,10 @@
         <v>1</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1248</v>
+        <v>1346</v>
       </c>
       <c r="C625" t="s">
-        <v>1249</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -11203,10 +11341,10 @@
         <v>1</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1250</v>
+        <v>1348</v>
       </c>
       <c r="C626" t="s">
-        <v>1251</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11214,10 +11352,10 @@
         <v>1</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1252</v>
+        <v>1350</v>
       </c>
       <c r="C627" t="s">
-        <v>1253</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -11225,10 +11363,10 @@
         <v>1</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1254</v>
+        <v>1148</v>
       </c>
       <c r="C628" t="s">
-        <v>1255</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -11236,120 +11374,120 @@
         <v>1</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>1256</v>
+        <v>1150</v>
       </c>
       <c r="C629" t="s">
-        <v>1257</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1258</v>
+        <v>1152</v>
       </c>
       <c r="C630" t="s">
-        <v>1259</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1260</v>
+        <v>1154</v>
       </c>
       <c r="C631" t="s">
-        <v>1261</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1262</v>
+        <v>1156</v>
       </c>
       <c r="C632" t="s">
-        <v>1263</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>2</v>
       </c>
-      <c r="B633" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C633" s="3" t="s">
-        <v>1265</v>
+      <c r="B633" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634">
-        <v>9</v>
-      </c>
-      <c r="B634" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C634" s="3" t="s">
-        <v>1267</v>
+        <v>2</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635">
-        <v>3</v>
-      </c>
-      <c r="B635" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C635" s="3" t="s">
-        <v>1269</v>
+        <v>2</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636">
-        <v>3</v>
-      </c>
-      <c r="B636" s="2" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C636" s="3" t="s">
-        <v>1271</v>
+        <v>1</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637">
-        <v>3</v>
-      </c>
-      <c r="B637" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C637" s="3" t="s">
-        <v>1273</v>
+        <v>1</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1274</v>
+        <v>1168</v>
       </c>
       <c r="C638" t="s">
-        <v>1275</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1276</v>
+        <v>1170</v>
       </c>
       <c r="C639" t="s">
-        <v>1277</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -11357,109 +11495,109 @@
         <v>1</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1278</v>
+        <v>1172</v>
       </c>
       <c r="C640" t="s">
-        <v>1279</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1280</v>
+        <v>1174</v>
       </c>
       <c r="C641" t="s">
-        <v>1281</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1282</v>
+        <v>1176</v>
       </c>
       <c r="C642" t="s">
-        <v>1283</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1284</v>
+        <v>1178</v>
       </c>
       <c r="C643" t="s">
-        <v>1285</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1286</v>
+        <v>1180</v>
       </c>
       <c r="C644" t="s">
-        <v>1287</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1288</v>
+        <v>1182</v>
       </c>
       <c r="C645" t="s">
-        <v>1289</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1290</v>
+        <v>1184</v>
       </c>
       <c r="C646" t="s">
-        <v>1291</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1292</v>
+        <v>1186</v>
       </c>
       <c r="C647" t="s">
-        <v>1293</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1294</v>
+        <v>1188</v>
       </c>
       <c r="C648" t="s">
-        <v>1295</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1296</v>
+        <v>1190</v>
       </c>
       <c r="C649" t="s">
-        <v>1297</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -11467,54 +11605,54 @@
         <v>2</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1298</v>
+        <v>1192</v>
       </c>
       <c r="C650" t="s">
-        <v>1299</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1300</v>
+        <v>1194</v>
       </c>
       <c r="C651" t="s">
-        <v>1301</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1302</v>
+        <v>1196</v>
       </c>
       <c r="C652" t="s">
-        <v>1303</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1304</v>
+        <v>1198</v>
       </c>
       <c r="C653" t="s">
-        <v>1305</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1306</v>
+        <v>1200</v>
       </c>
       <c r="C654" t="s">
-        <v>1307</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
@@ -11522,43 +11660,296 @@
         <v>1</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>700</v>
+        <v>1202</v>
       </c>
       <c r="C655" t="s">
-        <v>701</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>651</v>
+        <v>1204</v>
       </c>
       <c r="C656" t="s">
-        <v>650</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>659</v>
+        <v>1206</v>
       </c>
       <c r="C657" t="s">
-        <v>658</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658">
+        <v>2</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>1</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>1</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>2</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>9</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663">
         <v>3</v>
       </c>
-      <c r="B658" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="C658" t="s">
-        <v>878</v>
+      <c r="B663" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>3</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>3</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>5</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>4</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>7</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>2</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>2</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>2</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>3</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>2</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>2</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>2</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>2</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>2</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>1</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>3</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>3</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>2</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
